--- a/Gender Brief Factoid Logic.xlsx
+++ b/Gender Brief Factoid Logic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/gender-briefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{8666D398-CF56-4A20-9FE8-1C3A85F51FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD41265-4778-40DB-8039-A9AED97F507D}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{8666D398-CF56-4A20-9FE8-1C3A85F51FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5109EE-0EAE-44ED-914D-313A4C4778A5}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-2070" windowWidth="19420" windowHeight="10300" xr2:uid="{5468AC77-1E31-4D29-988F-BDE3ACE3A400}"/>
+    <workbookView xWindow="24090" yWindow="40" windowWidth="14400" windowHeight="8170" xr2:uid="{5468AC77-1E31-4D29-988F-BDE3ACE3A400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>Indicator</t>
   </si>
@@ -265,9 +265,6 @@
     <t>SP.M18.2024.FE.ZS</t>
   </si>
   <si>
-    <t>children are employed as a child labor</t>
-  </si>
-  <si>
     <t>percent of women are not able to visit family, relatives and friends on her own decision</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>times as likely as a woman to have borrowed money to start, operate, or expand a farm or business</t>
   </si>
   <si>
-    <t>married women ages 15 to 49 do not report having access to contraceptives</t>
-  </si>
-  <si>
     <t>SP.DYN.CONU.ZS</t>
   </si>
   <si>
@@ -329,6 +323,36 @@
   </si>
   <si>
     <t>percent as productive as if she enjoyed full education, health, and employment</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS</t>
+  </si>
+  <si>
+    <t>Men and women have a</t>
+  </si>
+  <si>
+    <t>percentage point gap in labor force participation</t>
+  </si>
+  <si>
+    <t>LFPR</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS</t>
+  </si>
+  <si>
+    <t>Men hold</t>
+  </si>
+  <si>
+    <t>times as many seats in the national parliament as women</t>
+  </si>
+  <si>
+    <t>Seats in national parliament</t>
+  </si>
+  <si>
+    <t>percent of married women ages 15 to 49 do not report having access to contraceptives</t>
+  </si>
+  <si>
+    <t>children are employed as a in positions of child labor</t>
   </si>
 </sst>
 </file>
@@ -689,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09152607-32F9-48BD-B485-E96A8A5B72A7}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,10 +759,10 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -761,7 +785,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -778,7 +802,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -798,7 +822,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -815,7 +839,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -835,7 +859,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -852,7 +876,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>42</v>
@@ -864,266 +888,300 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1">
+    </row>
+    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G15" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G23" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>91</v>
+    <row r="24" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
